--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7935" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 spring简介" sheetId="1" r:id="rId1"/>
     <sheet name="第二章 装配Bean" sheetId="2" r:id="rId2"/>
     <sheet name="第三章 高级装配" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="面试" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -119,6 +119,858 @@
   </si>
   <si>
     <t>但是开发人员，需要告诉Spring要创建那些bean并且如何将其装配在一起。</t>
+  </si>
+  <si>
+    <t>Spring中的声明式事务</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROPAGATION_REQUIRD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果有事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在运行，当前的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就在这个事务内运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>否则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动一个新的事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在自己的事务内运行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PROPAGATION_REQUIRES_NEW 当前方法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必须启动新事物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在它自己的事务内运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果有事务正在运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，应该将它</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挂起</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PROPAGATION_SUPPORTS 如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有事务在运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，当前的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就在这个事务内运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>否则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>它可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不运行在事务中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PROPAGATION_NOT_SUPPORTED 当前方法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不应该运行在事务中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果有运行的事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将它挂起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PROPAGATION_MANDATORY（强制，抛异常） 当前方法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必须运行在事物内部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正在运行的事务，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就抛出异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PROPAGATION_NEVER（强制不，抛异常） 当前的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不应该运行在事务中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行事务，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就抛出异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PROPAGATION_NESTED（嵌套） 如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有事务在运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，当前的方法就应该在这个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事务的嵌套事务内运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>否则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动一个新的事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在它自己的事务内运行</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring事务隔离级别</t>
+  </si>
+  <si>
+    <t>脏读（读取未提交数据）</t>
+  </si>
+  <si>
+    <t>A事务读取B事务尚未提交的数据，此时如果B事务发生错误并执行回滚操作，那么A事务读取到的数据就是脏数据。</t>
+  </si>
+  <si>
+    <t>不可重复读（前后多次读取，数据内容不一致）</t>
+  </si>
+  <si>
+    <t>幻读（前后多次读取，数据总量不一致）</t>
+  </si>
+  <si>
+    <t>事务A在执行读取操作，需要两次统计数据的总量，前一次查询数据总量后，</t>
+  </si>
+  <si>
+    <t>此时事务B执行了新增数据的操作并提交后，这个时候事务A读取的数据总量和之前统计的不一样，就像产生了幻觉一样，平白无故的多了几条数据</t>
+  </si>
+  <si>
+    <t>就好象发生了幻觉一样.一般解决幻读的方法是增加范围锁RangeS，锁定检索范围为只读，这样就避免了幻读。</t>
+  </si>
+  <si>
+    <t>Spring的AOP实现原理</t>
+  </si>
+  <si>
+    <t>动态代理</t>
+  </si>
+  <si>
+    <t>什么时候使用cglib，什么时候使用动态代理</t>
+  </si>
+  <si>
+    <t>如果被代理的目标对象实现了至少一个接口，则会使用JDK动态代理。所有该目标类型实现的接口都将被代理。若该目标对象没有实现任何接口，则创建一个CGLIB代理。</t>
+  </si>
+  <si>
+    <t>JDK动态代理</t>
+  </si>
+  <si>
+    <t>基于Java的反射机制实现的</t>
+  </si>
+  <si>
+    <t>主要涉及到java.lang.reflect包中的Proxy和InvocationHandler。</t>
+  </si>
+  <si>
+    <t>InvocationHandler是一个接口，通过实现这个接口定义一个横切的逻辑！然后通过反射机制调用目标类的方法</t>
+  </si>
+  <si>
+    <t>，这样就能动态的把非业务逻辑和业务逻辑动态的拼接在一起！</t>
+  </si>
+  <si>
+    <r>
+      <t>proxy则利用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InvocationHandler创建代理实例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来间接的调用代理的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+  </si>
+  <si>
+    <t>如果被代理的目标对象实现了至少一个接口，否则只能使用Cglib</t>
+  </si>
+  <si>
+    <t>Cglib</t>
+  </si>
+  <si>
+    <r>
+      <t>CGLib实现动态代理，完全</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不受代理类必须实现接口的限制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而且CGLib底层采用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASM字节码生成框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字节码技术生成代理类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比使用Java反射效率要高。</t>
+    </r>
+  </si>
+  <si>
+    <t>唯一需要注意的是，CGLib不能对声明为final的方法进行代理，因为CGLib原理是动态生成被代理类的子类。</t>
+  </si>
+  <si>
+    <t>RPC</t>
+  </si>
+  <si>
+    <t>远程过程调用</t>
+  </si>
+  <si>
+    <r>
+      <t>消费方通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务方提供的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态代理获取代理对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>然后调用代理对象的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，代理对象在内部进行远程调用，获得计算结果</t>
+    </r>
+  </si>
+  <si>
+    <t>主要有服务提供方暴露服务</t>
+  </si>
+  <si>
+    <t>服务消费方获取代理对象</t>
+  </si>
+  <si>
+    <t>代理对象与服务提供方建立远程连接</t>
+  </si>
+  <si>
+    <t>暴露服务</t>
+  </si>
+  <si>
+    <t>建立ServerSocket服务，并监听指定端口</t>
+  </si>
+  <si>
+    <t>当有远程连接建立时，创建一个线程，在线程中从输入流中依次读取方法名、参数类型、参数值等信息</t>
+  </si>
+  <si>
+    <t>，并根据方法名和参数执行实例对象service中对应的方法，获得返回结果</t>
+  </si>
+  <si>
+    <t>代理工厂</t>
+  </si>
+  <si>
+    <t>消费方获取代理对象，使用JDK的动态代理API，传入接口类名。生成代理对象的时候，需要传入一个实现了InvocationHandler的对象</t>
+  </si>
+  <si>
+    <t>代理对象建立远程连接</t>
+  </si>
+  <si>
+    <t>这个Handler中重写了invoke方法，实现代理对象的方法与服务提供方建立连接并获得返回结果</t>
   </si>
 </sst>
 </file>
@@ -127,11 +979,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,10 +992,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,7 +1009,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,9 +1044,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,14 +1075,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -208,36 +1083,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -253,32 +1098,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,187 +1153,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,17 +1446,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,18 +1489,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,15 +1514,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,17 +1533,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,10 +1551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,138 +1563,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -923,6 +1792,177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1714500"/>
+          <a:ext cx="9363075" cy="4886325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12687300"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12515850"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="12563475"/>
+          <a:ext cx="5867400" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,106 +2359,106 @@
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="1" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="4" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="1" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="G29" s="4" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1468,7 +2508,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1483,15 +2523,248 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -731,7 +731,62 @@
     <t>主要涉及到java.lang.reflect包中的Proxy和InvocationHandler。</t>
   </si>
   <si>
-    <t>InvocationHandler是一个接口，通过实现这个接口定义一个横切的逻辑！然后通过反射机制调用目标类的方法</t>
+    <r>
+      <t>InvocationHandler是一个接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过实现这个接口定义一个横切的逻辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过反射机制调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目标</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类的方法</t>
+    </r>
   </si>
   <si>
     <t>，这样就能动态的把非业务逻辑和业务逻辑动态的拼接在一起！</t>
@@ -784,7 +839,30 @@
     </r>
   </si>
   <si>
-    <t>如果被代理的目标对象实现了至少一个接口，否则只能使用Cglib</t>
+    <r>
+      <t>如果被代理的目标对象实现了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>至少一个接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，否则只能使用Cglib</t>
+    </r>
   </si>
   <si>
     <t>Cglib</t>
@@ -870,107 +948,6 @@
   </si>
   <si>
     <t>唯一需要注意的是，CGLib不能对声明为final的方法进行代理，因为CGLib原理是动态生成被代理类的子类。</t>
-  </si>
-  <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>远程过程调用</t>
-  </si>
-  <si>
-    <r>
-      <t>消费方通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>服务方提供的接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动态代理获取代理对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>象</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>然后调用代理对象的方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，代理对象在内部进行远程调用，获得计算结果</t>
-    </r>
-  </si>
-  <si>
-    <t>主要有服务提供方暴露服务</t>
-  </si>
-  <si>
-    <t>服务消费方获取代理对象</t>
-  </si>
-  <si>
-    <t>代理对象与服务提供方建立远程连接</t>
-  </si>
-  <si>
-    <t>暴露服务</t>
-  </si>
-  <si>
-    <t>建立ServerSocket服务，并监听指定端口</t>
-  </si>
-  <si>
-    <t>当有远程连接建立时，创建一个线程，在线程中从输入流中依次读取方法名、参数类型、参数值等信息</t>
-  </si>
-  <si>
-    <t>，并根据方法名和参数执行实例对象service中对应的方法，获得返回结果</t>
-  </si>
-  <si>
-    <t>代理工厂</t>
-  </si>
-  <si>
-    <t>消费方获取代理对象，使用JDK的动态代理API，传入接口类名。生成代理对象的时候，需要传入一个实现了InvocationHandler的对象</t>
-  </si>
-  <si>
-    <t>代理对象建立远程连接</t>
-  </si>
-  <si>
-    <t>这个Handler中重写了invoke方法，实现代理对象的方法与服务提供方建立连接并获得返回结果</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1701,9 +1678,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1826,130 +1800,6 @@
         <a:xfrm>
           <a:off x="685800" y="1714500"/>
           <a:ext cx="9363075" cy="4886325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="12687300"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="12515850"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638175" y="12563475"/>
-          <a:ext cx="5867400" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2359,106 +2209,106 @@
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="G25" s="4" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="7" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="G28" s="4" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="7" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="G29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,13 +2373,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -2650,7 +2500,7 @@
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2687,81 +2537,37 @@
     <row r="69" spans="2:2">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4">
-      <c r="D95" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" t="s">
-        <v>78</v>
-      </c>
-    </row>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
+    <row r="85" customFormat="1"/>
+    <row r="86" customFormat="1"/>
+    <row r="87" customFormat="1"/>
+    <row r="88" customFormat="1"/>
+    <row r="89" customFormat="1"/>
+    <row r="90" customFormat="1"/>
+    <row r="91" customFormat="1"/>
+    <row r="92" customFormat="1"/>
+    <row r="93" customFormat="1"/>
+    <row r="94" customFormat="1"/>
+    <row r="95" customFormat="1"/>
+    <row r="96" customFormat="1"/>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 spring简介" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -125,6 +125,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">PROPAGATION_REQUIRD </t>
     </r>
     <r>
@@ -225,6 +232,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PROPAGATION_REQUIRES_NEW 当前方法</t>
     </r>
     <r>
@@ -304,6 +318,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PROPAGATION_SUPPORTS 如果</t>
     </r>
     <r>
@@ -383,6 +404,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PROPAGATION_NOT_SUPPORTED 当前方法</t>
     </r>
     <r>
@@ -451,6 +479,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PROPAGATION_MANDATORY（强制，抛异常） 当前方法</t>
     </r>
     <r>
@@ -519,6 +554,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PROPAGATION_NEVER（强制不，抛异常） 当前的方法</t>
     </r>
     <r>
@@ -587,6 +629,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PROPAGATION_NESTED（嵌套） 如果</t>
     </r>
     <r>
@@ -728,11 +777,70 @@
     <t>基于Java的反射机制实现的</t>
   </si>
   <si>
-    <t>主要涉及到java.lang.reflect包中的Proxy和InvocationHandler。</t>
-  </si>
-  <si>
-    <r>
-      <t>InvocationHandler是一个接口，</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主要涉及到java.lang.reflect包中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proxy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InvocationHandler。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InvocationHandler是一个接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -793,6 +901,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>proxy则利用</t>
     </r>
     <r>
@@ -840,6 +955,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果被代理的目标对象实现了</t>
     </r>
     <r>
@@ -901,28 +1023,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ASM字节码生成框架</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，使用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字节码技术生成代理类</t>
+      <t>ASM（java字节码操纵框架,它能被用来动态生成类）字节码生成框架</t>
     </r>
     <r>
       <rPr>
@@ -934,6 +1035,21 @@
       </rPr>
       <t>，</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>使用字节码技术生成代理类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -947,7 +1063,30 @@
     </r>
   </si>
   <si>
-    <t>唯一需要注意的是，CGLib不能对声明为final的方法进行代理，因为CGLib原理是动态生成被代理类的子类。</t>
+    <r>
+      <t>唯一需要注意的是，CGLib</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能对声明为final的方法进行代理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为CGLib原理是动态生成被代理类的子类。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -956,8 +1095,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -977,8 +1116,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,22 +1231,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,99 +1259,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1130,55 +1269,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,127 +1443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,17 +1562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,6 +1582,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,24 +1612,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,8 +1624,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,13 +1645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,10 +1667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1540,133 +1679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2373,10 +2512,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2495,12 +2634,12 @@
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2529,13 +2668,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2"/>
+    <row r="69" customFormat="1" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="70" customFormat="1"/>
     <row r="71" customFormat="1"/>
@@ -2567,7 +2708,6 @@
     <row r="97" customFormat="1"/>
     <row r="98" customFormat="1"/>
     <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -774,6 +774,18 @@
     <t>JDK动态代理</t>
   </si>
   <si>
+    <t>JDK代理是不需要第三方库支持，只需要JDK环境就可以进行代理</t>
+  </si>
+  <si>
+    <t>实现InvocationHandler</t>
+  </si>
+  <si>
+    <t>使用Proxy.newProxyInstance产生代理对象</t>
+  </si>
+  <si>
+    <t>被代理的对象必须要实现接口</t>
+  </si>
+  <si>
     <t>基于Java的反射机制实现的</t>
   </si>
   <si>
@@ -990,7 +1002,17 @@
     <t>Cglib</t>
   </si>
   <si>
-    <r>
+    <t>CGLib必须依赖于CGLib的类库，但是它需要类来实现任何接口代理的是指定的类生成一个子类，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CGLib实现动态代理，完全</t>
     </r>
     <r>
@@ -1038,6 +1060,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用字节码技术生成代理类</t>
     </r>
     <r>
@@ -1064,6 +1094,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>唯一需要注意的是，CGLib</t>
     </r>
     <r>
@@ -1116,9 +1153,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,7 +1206,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,15 +1237,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,45 +1266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,29 +1290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1269,25 +1306,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,157 +1480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,6 +1600,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1581,16 +1651,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1606,41 +1678,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,10 +1704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1679,133 +1716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2512,10 +2549,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2634,57 +2671,75 @@
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
-      <c r="C62" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="2" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="1" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="2:2">
-      <c r="B69" s="2" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="77" customFormat="1"/>
     <row r="78" customFormat="1"/>
     <row r="79" customFormat="1"/>
@@ -2708,6 +2763,13 @@
     <row r="97" customFormat="1"/>
     <row r="98" customFormat="1"/>
     <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -1131,8 +1131,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1154,15 +1154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,16 +1167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,7 +1182,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1214,7 +1198,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,29 +1206,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1260,17 +1238,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,7 +1262,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,6 +1288,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1306,43 +1306,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,13 +1456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,115 +1474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,24 +1614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1651,7 +1633,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,6 +1660,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,21 +1696,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1704,10 +1704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1716,133 +1716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2551,8 +2551,8 @@
   <sheetPr/>
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 spring简介" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -1124,6 +1124,141 @@
       </rPr>
       <t>，因为CGLib原理是动态生成被代理类的子类。</t>
     </r>
+  </si>
+  <si>
+    <t>注解分类：</t>
+  </si>
+  <si>
+    <t>用于创建对象的</t>
+  </si>
+  <si>
+    <t>他们的作用就和在XML配置文件中编写一个&lt;bean&gt;标签实现的功能是一样的</t>
+  </si>
+  <si>
+    <t>Component:</t>
+  </si>
+  <si>
+    <t>作用：用于把当前类对象存入spring容器中</t>
+  </si>
+  <si>
+    <t>属性：</t>
+  </si>
+  <si>
+    <t>value：用于指定bean的id。当我们不写时，它的默认值是当前类名，且首字母改小写。</t>
+  </si>
+  <si>
+    <t>Controller：一般用在表现层</t>
+  </si>
+  <si>
+    <t>Service：一般用在业务层</t>
+  </si>
+  <si>
+    <t>Repository：一般用在持久层</t>
+  </si>
+  <si>
+    <t>以上三个注解他们的作用和属性与Component是一模一样。</t>
+  </si>
+  <si>
+    <t>他们三个是spring框架为我们提供明确的三层使用的注解，使我们的三层对象更加清晰</t>
+  </si>
+  <si>
+    <t>用于注入数据的</t>
+  </si>
+  <si>
+    <t>他们的作用就和在xml配置文件中的bean标签中写一个&lt;property&gt;标签的作用是一样的</t>
+  </si>
+  <si>
+    <t>Autowired:</t>
+  </si>
+  <si>
+    <t>作用：自动按照类型注入。只要容器中有唯一的一个bean对象类型和要注入的变量类型匹配，就可以注入成功</t>
+  </si>
+  <si>
+    <t>如果ioc容器中没有任何bean的类型和要注入的变量类型匹配，则报错。</t>
+  </si>
+  <si>
+    <t>如果Ioc容器中有多个类型匹配时：</t>
+  </si>
+  <si>
+    <t>出现位置：</t>
+  </si>
+  <si>
+    <t>可以是变量上，也可以是方法上</t>
+  </si>
+  <si>
+    <t>细节：</t>
+  </si>
+  <si>
+    <t>在使用注解注入时，set方法就不是必须的了。</t>
+  </si>
+  <si>
+    <t>Qualifier:</t>
+  </si>
+  <si>
+    <t>作用：在按照类中注入的基础之上再按照名称注入。它在给类成员注入时不能单独使用。但是在给方法参数注入时可以</t>
+  </si>
+  <si>
+    <t>value：用于指定注入bean的id。</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>作用：直接按照bean的id注入。它可以独立使用</t>
+  </si>
+  <si>
+    <t>name：用于指定bean的id。</t>
+  </si>
+  <si>
+    <t>以上三个注入都只能注入其他bean类型的数据，而基本类型和String类型无法使用上述注解实现。</t>
+  </si>
+  <si>
+    <t>另外，集合类型的注入只能通过XML来实现。</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>作用：用于注入基本类型和String类型的数据</t>
+  </si>
+  <si>
+    <t>value：用于指定数据的值。它可以使用spring中SpEL(也就是spring的el表达式）</t>
+  </si>
+  <si>
+    <t>SpEL的写法：${表达式}</t>
+  </si>
+  <si>
+    <t>用于改变作用范围的</t>
+  </si>
+  <si>
+    <t>他们的作用就和在bean标签中使用scope属性实现的功能是一样的</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>作用：用于指定bean的作用范围</t>
+  </si>
+  <si>
+    <t>value：指定范围的取值。常用取值：singleton prototype</t>
+  </si>
+  <si>
+    <t>和生命周期相关 了解</t>
+  </si>
+  <si>
+    <t>他们的作用就和在bean标签中使用init-method和destroy-methode的作用是一样的</t>
+  </si>
+  <si>
+    <t>PreDestroy</t>
+  </si>
+  <si>
+    <t>作用：用于指定销毁方法</t>
+  </si>
+  <si>
+    <t>PostConstruct</t>
+  </si>
+  <si>
+    <t>作用：用于指定初始化方法</t>
   </si>
 </sst>
 </file>
@@ -1132,9 +1267,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1154,13 +1289,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1174,8 +1302,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,8 +1370,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,57 +1402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,15 +1417,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,14 +1431,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1303,6 +1438,96 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1312,7 +1537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,19 +1561,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,55 +1603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,85 +1615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,21 +1735,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1638,46 +1758,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,6 +1796,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1704,145 +1839,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2549,13 +2684,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -2742,34 +2877,253 @@
     </row>
     <row r="77" customFormat="1"/>
     <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
-    <row r="82" customFormat="1"/>
-    <row r="83" customFormat="1"/>
-    <row r="84" customFormat="1"/>
-    <row r="85" customFormat="1"/>
-    <row r="86" customFormat="1"/>
-    <row r="87" customFormat="1"/>
-    <row r="88" customFormat="1"/>
-    <row r="89" customFormat="1"/>
-    <row r="90" customFormat="1"/>
+    <row r="79" customFormat="1" spans="1:1">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="2:2">
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="3:3">
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="3:3">
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="4:4">
+      <c r="D83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="4:4">
+      <c r="D84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="5:5">
+      <c r="E85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="3:3">
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="3:3">
+      <c r="C87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="3:3">
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="3:3">
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="3:3">
+      <c r="C90" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="91" customFormat="1"/>
-    <row r="92" customFormat="1"/>
-    <row r="93" customFormat="1"/>
-    <row r="94" customFormat="1"/>
-    <row r="95" customFormat="1"/>
-    <row r="96" customFormat="1"/>
-    <row r="97" customFormat="1"/>
-    <row r="98" customFormat="1"/>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" customFormat="1"/>
+    <row r="92" customFormat="1" spans="2:2">
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="3:3">
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="3:3">
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="4:4">
+      <c r="D95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="5:5">
+      <c r="E96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="5:5">
+      <c r="E97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="4:4">
+      <c r="D98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="5:5">
+      <c r="E99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="4:4">
+      <c r="D100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="5:5">
+      <c r="E101" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="102" customFormat="1"/>
-    <row r="103" customFormat="1"/>
-    <row r="104" customFormat="1"/>
-    <row r="105" customFormat="1"/>
-    <row r="106" customFormat="1"/>
+    <row r="103" customFormat="1" spans="3:3">
+      <c r="C103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="4:4">
+      <c r="D104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="4:4">
+      <c r="D105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="5:5">
+      <c r="E106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -1135,7 +1135,27 @@
     <t>他们的作用就和在XML配置文件中编写一个&lt;bean&gt;标签实现的功能是一样的</t>
   </si>
   <si>
-    <t>Component:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
   </si>
   <si>
     <t>作用：用于把当前类对象存入spring容器中</t>
@@ -1144,16 +1164,81 @@
     <t>属性：</t>
   </si>
   <si>
-    <t>value：用于指定bean的id。当我们不写时，它的默认值是当前类名，且首字母改小写。</t>
-  </si>
-  <si>
-    <t>Controller：一般用在表现层</t>
-  </si>
-  <si>
-    <t>Service：一般用在业务层</t>
-  </si>
-  <si>
-    <t>Repository：一般用在持久层</t>
+    <r>
+      <t>value：用于指定bean的id。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当我们不写时，它的默认值是当前类名，且首字母改小写。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：一般用在表现层</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：一般用在业务层</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：一般用在持久层</t>
+    </r>
   </si>
   <si>
     <t>以上三个注解他们的作用和属性与Component是一模一样。</t>
@@ -1171,13 +1256,43 @@
     <t>Autowired:</t>
   </si>
   <si>
-    <t>作用：自动按照类型注入。只要容器中有唯一的一个bean对象类型和要注入的变量类型匹配，就可以注入成功</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作用：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动按照类型注入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。只要容器中有唯一的一个bean对象类型和要注入的变量类型匹配，就可以注入成功</t>
+    </r>
   </si>
   <si>
     <t>如果ioc容器中没有任何bean的类型和要注入的变量类型匹配，则报错。</t>
   </si>
   <si>
-    <t>如果Ioc容器中有多个类型匹配时：</t>
+    <t>如果Ioc容器中有多个类型匹配时：根据定义的变量名来定位，或者通过Qualifier组合查找</t>
   </si>
   <si>
     <t>出现位置：</t>
@@ -1192,7 +1307,27 @@
     <t>在使用注解注入时，set方法就不是必须的了。</t>
   </si>
   <si>
-    <t>Qualifier:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:必须配合Autowired一起使用，场景是如果有多个想通的类型可以通过Qualifier指定某个名字来定位bean</t>
+    </r>
   </si>
   <si>
     <t>作用：在按照类中注入的基础之上再按照名称注入。它在给类成员注入时不能单独使用。但是在给方法参数注入时可以</t>
@@ -1201,7 +1336,27 @@
     <t>value：用于指定注入bean的id。</t>
   </si>
   <si>
-    <t>Resource</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果不想使用Autowired和Qualifier组合，可以使用这个</t>
+    </r>
   </si>
   <si>
     <t>作用：直接按照bean的id注入。它可以独立使用</t>
@@ -1210,10 +1365,71 @@
     <t>name：用于指定bean的id。</t>
   </si>
   <si>
-    <t>以上三个注入都只能注入其他bean类型的数据，而基本类型和String类型无法使用上述注解实现。</t>
-  </si>
-  <si>
-    <t>另外，集合类型的注入只能通过XML来实现。</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以上三个注入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都只能注入其他bean类型的数据，而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本类型和String类型无法使用上述注解实现。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>另外，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集合类型的注入只能通过XML来实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>Value</t>
@@ -1259,6 +1475,48 @@
   </si>
   <si>
     <t>作用：用于指定初始化方法</t>
+  </si>
+  <si>
+    <t>@RunWith</t>
+  </si>
+  <si>
+    <t>RunWith就是一个运行器</t>
+  </si>
+  <si>
+    <t>RunWith(SpringJUnit4ClassRunner.class),让测试运行于Spring测试环境</t>
+  </si>
+  <si>
+    <t>@ContextConfiguration</t>
+  </si>
+  <si>
+    <t>使用注解引入多个配置文件</t>
+  </si>
+  <si>
+    <t>单个文件：</t>
+  </si>
+  <si>
+    <t>ContextConfiguration(Locations="../applicationContext.xml")</t>
+  </si>
+  <si>
+    <t>ContextConfiguration(classes = SimpleConfiguration.class)</t>
+  </si>
+  <si>
+    <t>多个文件：</t>
+  </si>
+  <si>
+    <t>ContextConfiguration(locations = { "classpath*:/spring1.xml", "classpath*:/spring2.xml" })</t>
+  </si>
+  <si>
+    <t>context:component-scan</t>
+  </si>
+  <si>
+    <t>告知spring在创建容器时要扫描的包，配置所需要的标签不是在beans的约束中，而是一个名称为context名称空间和约束中</t>
+  </si>
+  <si>
+    <t>ClassPathXmlApplicationContext</t>
+  </si>
+  <si>
+    <t>加载指定的xml文件，实例化文件中配置的bean</t>
   </si>
 </sst>
 </file>
@@ -1266,10 +1524,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1289,6 +1547,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1296,7 +1561,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1307,6 +1603,45 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1326,29 +1661,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,54 +1669,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,16 +1683,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,7 +1699,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,13 +1723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,13 +1753,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,7 +1807,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,115 +1873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,39 +2007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1808,11 +2033,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1831,6 +2069,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1839,145 +2097,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2111,6 +2369,48 @@
         <a:xfrm>
           <a:off x="685800" y="1714500"/>
           <a:ext cx="9363075" cy="4886325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="14097000"/>
+          <a:ext cx="9010650" cy="3571875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,10 +2984,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K126" sqref="K126"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2870,147 +3170,169 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="2:2">
+    <row r="76" customFormat="1" spans="1:2">
+      <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
     <row r="79" customFormat="1" spans="1:1">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="2:2">
+    <row r="80" customFormat="1" spans="1:2">
+      <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="3:3">
+    <row r="81" customFormat="1" spans="1:3">
+      <c r="A81" s="1"/>
       <c r="C81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="3:3">
-      <c r="C82" t="s">
+    <row r="82" customFormat="1" spans="1:3">
+      <c r="A82" s="1"/>
+      <c r="C82" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="4:4">
+    <row r="83" customFormat="1" spans="1:4">
+      <c r="A83" s="1"/>
       <c r="D83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" customFormat="1" spans="4:4">
+    <row r="84" customFormat="1" spans="1:4">
+      <c r="A84" s="1"/>
       <c r="D84" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="5:5">
-      <c r="E85" t="s">
+    <row r="85" customFormat="1" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="E85" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="3:3">
-      <c r="C86" t="s">
+    <row r="86" customFormat="1" spans="1:3">
+      <c r="A86" s="1"/>
+      <c r="C86" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="3:3">
-      <c r="C87" t="s">
+    <row r="87" customFormat="1" spans="1:3">
+      <c r="A87" s="1"/>
+      <c r="C87" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" customFormat="1" spans="3:3">
-      <c r="C88" t="s">
+    <row r="88" customFormat="1" spans="1:3">
+      <c r="A88" s="1"/>
+      <c r="C88" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" customFormat="1" spans="3:3">
+    <row r="89" customFormat="1" spans="1:3">
+      <c r="A89" s="1"/>
       <c r="C89" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" customFormat="1" spans="3:3">
+    <row r="90" customFormat="1" spans="1:3">
+      <c r="A90" s="1"/>
       <c r="C90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" customFormat="1"/>
-    <row r="92" customFormat="1" spans="2:2">
-      <c r="B92" t="s">
+    <row r="92" customFormat="1" spans="1:2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="3:3">
+    <row r="93" customFormat="1" spans="1:3">
+      <c r="A93" s="1"/>
       <c r="C93" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" customFormat="1" spans="3:3">
-      <c r="C94" t="s">
+    <row r="94" customFormat="1" spans="1:3">
+      <c r="A94" s="1"/>
+      <c r="C94" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" customFormat="1" spans="4:4">
-      <c r="D95" t="s">
+    <row r="95" customFormat="1" spans="1:4">
+      <c r="A95" s="1"/>
+      <c r="D95" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" customFormat="1" spans="5:5">
+    <row r="96" customFormat="1" spans="1:5">
+      <c r="A96" s="1"/>
       <c r="E96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" customFormat="1" spans="5:5">
+    <row r="97" customFormat="1" spans="1:5">
+      <c r="A97" s="1"/>
       <c r="E97" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" customFormat="1" spans="4:4">
+    <row r="98" customFormat="1" spans="1:4">
+      <c r="A98" s="1"/>
       <c r="D98" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" customFormat="1" spans="5:5">
+    <row r="99" customFormat="1" spans="1:5">
+      <c r="A99" s="1"/>
       <c r="E99" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" customFormat="1" spans="4:4">
+    <row r="100" customFormat="1" spans="1:4">
+      <c r="A100" s="1"/>
       <c r="D100" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" customFormat="1" spans="5:5">
+    <row r="101" customFormat="1" spans="1:5">
+      <c r="A101" s="1"/>
       <c r="E101" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" customFormat="1"/>
-    <row r="103" customFormat="1" spans="3:3">
-      <c r="C103" t="s">
+    <row r="103" customFormat="1" spans="1:3">
+      <c r="A103" s="1"/>
+      <c r="C103" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" customFormat="1" spans="4:4">
+    <row r="104" customFormat="1" spans="1:4">
+      <c r="A104" s="1"/>
       <c r="D104" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="105" customFormat="1" spans="4:4">
+    <row r="105" customFormat="1" spans="1:4">
+      <c r="A105" s="1"/>
       <c r="D105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" customFormat="1" spans="5:5">
+    <row r="106" customFormat="1" spans="1:5">
+      <c r="A106" s="1"/>
       <c r="E106" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3030,17 +3352,17 @@
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3065,7 +3387,7 @@
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3075,7 +3397,7 @@
       </c>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3095,7 +3417,7 @@
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3105,7 +3427,7 @@
       </c>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3115,13 +3437,83 @@
       </c>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -1136,14 +1136,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Component</t>
     </r>
     <r>
@@ -1517,6 +1509,51 @@
   </si>
   <si>
     <t>加载指定的xml文件，实例化文件中配置的bean</t>
+  </si>
+  <si>
+    <t>@Bean</t>
+  </si>
+  <si>
+    <t>作用：用于把当前方法的返回值作为bean对象存入spring的ioc容器中</t>
+  </si>
+  <si>
+    <t>属性:</t>
+  </si>
+  <si>
+    <t>name（key）:用于指定bean的id。当不写时，默认值是当前方法的名称</t>
+  </si>
+  <si>
+    <t>@Configuration</t>
+  </si>
+  <si>
+    <t>作用：指定当前类是一个配置类</t>
+  </si>
+  <si>
+    <t>细节：当配置类作为AnnotationConfigApplicationContext对象创建的参数时，该注解可以不写。</t>
+  </si>
+  <si>
+    <t>@Import</t>
+  </si>
+  <si>
+    <t>作用：用于导入其他的配置类</t>
+  </si>
+  <si>
+    <t>value：用于指定其他配置类的字节码。</t>
+  </si>
+  <si>
+    <t>当我们使用Import的注解之后，有Import注解的类就父配置类，而导入的都是子配置类</t>
+  </si>
+  <si>
+    <t>@PropertySource</t>
+  </si>
+  <si>
+    <t>作用：用于指定properties文件的位置</t>
+  </si>
+  <si>
+    <t>value：指定文件的名称和路径。</t>
+  </si>
+  <si>
+    <t>关键字：classpath，表示类路径下</t>
   </si>
 </sst>
 </file>
@@ -2984,10 +3021,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3516,6 +3553,86 @@
         <v>128</v>
       </c>
     </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="3"/>
+    <workbookView windowWidth="25200" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 spring简介" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="180">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -1136,6 +1136,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Component</t>
     </r>
     <r>
@@ -1157,6 +1165,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>value：用于指定bean的id。</t>
     </r>
     <r>
@@ -1196,6 +1211,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Service</t>
     </r>
     <r>
@@ -1554,6 +1577,114 @@
   </si>
   <si>
     <t>关键字：classpath，表示类路径下</t>
+  </si>
+  <si>
+    <t>@PostConstruct</t>
+  </si>
+  <si>
+    <t>被@PostConstruct修饰的方法会在服务器加载Servlet的时候运行，并且只会被服务器调用一次，类似于Serclet的inti()方法。</t>
+  </si>
+  <si>
+    <t>被@PostConstruct修饰的方法会在构造函数之后，init()方法之前运行。</t>
+  </si>
+  <si>
+    <t>比如事务管理的方法类</t>
+  </si>
+  <si>
+    <t>@PreConstruct</t>
+  </si>
+  <si>
+    <t>被@PreConstruct修饰的方法会在服务器卸载Servlet的时候运行，并且只会被服务器调用一次，类似于Servlet的destroy()方法。</t>
+  </si>
+  <si>
+    <t>被@PreConstruct修饰的方法会在destroy()方法之后运行，在Servlet被彻底卸载之前。</t>
+  </si>
+  <si>
+    <t>写一个转账的服务，通过ThreadLocal，实现事务处理</t>
+  </si>
+  <si>
+    <t>Spring中DataSource里的setAutoCommit</t>
+  </si>
+  <si>
+    <t>自动或手动提交设置setAutoCommit(false)</t>
+  </si>
+  <si>
+    <t>true：如果连接处于自动提交模式，所有sql语句将作为个人执行和提交</t>
+  </si>
+  <si>
+    <t>false：否则将sql语句分组为通过调用 commit 或 rollback 其中一个终止</t>
+  </si>
+  <si>
+    <t>动态代理相关</t>
+  </si>
+  <si>
+    <t>实现接口的类没有实现任何接口的时候，不允许动态代理，否则会报没有代理类的错误</t>
+  </si>
+  <si>
+    <t>特点：字节码随用随创建，随用随加载</t>
+  </si>
+  <si>
+    <t>作用：不修改源码的基础上对方法增强</t>
+  </si>
+  <si>
+    <t>分类：</t>
+  </si>
+  <si>
+    <t>基于接口的动态代理</t>
+  </si>
+  <si>
+    <t>基于子类的动态代理</t>
+  </si>
+  <si>
+    <t>基于接口的动态代理：</t>
+  </si>
+  <si>
+    <t>涉及的类：Proxy</t>
+  </si>
+  <si>
+    <t>提供者：JDK</t>
+  </si>
+  <si>
+    <t>如何创建代理对象：</t>
+  </si>
+  <si>
+    <t>使用Proxy类中的newProxyInstance方法</t>
+  </si>
+  <si>
+    <t>创建代理对象的要求：</t>
+  </si>
+  <si>
+    <t>被代理类至少实现一个接口，如果没有则不能使用</t>
+  </si>
+  <si>
+    <t>newProxyInstance方法的参数：</t>
+  </si>
+  <si>
+    <t>ClassLoader：类加载器，它是用于加载代理对象字节码的。和被代理对象使用相同的类加载器。固定写法</t>
+  </si>
+  <si>
+    <t>Class[]：字节码数组，它是用于让代理对象和被代理对象有相同的方法。固定写法</t>
+  </si>
+  <si>
+    <t>InvocationHandler：用于提供增强的代码，它是让我们写如何代理。我们一般都是写一个接口的实现类，通常情况下都是匿名内部类</t>
+  </si>
+  <si>
+    <t>参数：</t>
+  </si>
+  <si>
+    <t>proxy     代理对象的引用</t>
+  </si>
+  <si>
+    <t>method    当前执行的方法</t>
+  </si>
+  <si>
+    <t>args      当前执行方法所需要的参数</t>
+  </si>
+  <si>
+    <t>代理一个普通的java类，不需要实现任何接口</t>
+  </si>
+  <si>
+    <t>要求用第三方jar包，asm的jar包</t>
   </si>
 </sst>
 </file>
@@ -1561,9 +1692,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1604,6 +1735,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1629,7 +1805,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1652,76 +1851,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1736,13 +1867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,25 +1885,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,19 +1957,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,13 +1993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,13 +2005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,73 +2047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,45 +2160,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2092,17 +2184,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2118,11 +2204,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2134,145 +2265,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3021,10 +3152,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3633,6 +3764,185 @@
         <v>143</v>
       </c>
     </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" t="s">
+        <v>160</v>
+      </c>
+      <c r="C192" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5">
+      <c r="D205" t="s">
+        <v>174</v>
+      </c>
+      <c r="E205" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B209" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 spring简介" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -1685,6 +1685,12 @@
   </si>
   <si>
     <t>要求用第三方jar包，asm的jar包</t>
+  </si>
+  <si>
+    <t>AOP</t>
+  </si>
+  <si>
+    <t>作用：在程序运行期间，不修改源码对已有方法进行增强</t>
   </si>
 </sst>
 </file>
@@ -3152,10 +3158,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3943,6 +3949,14 @@
         <v>179</v>
       </c>
     </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B212" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="3"/>
+    <workbookView windowWidth="25200" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 spring简介" sheetId="1" r:id="rId1"/>
@@ -1687,7 +1687,7 @@
     <t>要求用第三方jar包，asm的jar包</t>
   </si>
   <si>
-    <t>AOP</t>
+    <t>AOP配置</t>
   </si>
   <si>
     <t>作用：在程序运行期间，不修改源码对已有方法进行增强</t>
@@ -1698,10 +1698,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1720,8 +1720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,7 +1736,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,6 +1762,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1764,15 +1787,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1781,6 +1813,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1802,28 +1841,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1832,9 +1849,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1843,22 +1859,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1873,49 +1873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,90 +1903,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2029,7 +1915,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2041,7 +1951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,7 +1963,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2166,15 +2166,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2190,21 +2181,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2225,30 +2220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2263,6 +2234,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2271,10 +2271,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2283,133 +2283,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3160,8 +3160,8 @@
   <sheetPr/>
   <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/spring/spring.xlsx
+++ b/spring/spring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 spring简介" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="189">
   <si>
     <t>为了降低Java开发的复杂性，Spring采取了依4中关键策略</t>
   </si>
@@ -1691,6 +1691,27 @@
   </si>
   <si>
     <t>作用：在程序运行期间，不修改源码对已有方法进行增强</t>
+  </si>
+  <si>
+    <t>依赖注入： Dependency Injection</t>
+  </si>
+  <si>
+    <t>Junit单元测试</t>
+  </si>
+  <si>
+    <t>1、导入spring整合junit的jar</t>
+  </si>
+  <si>
+    <t>2、使用Junit提供的一个注解把原有的main方法替换了，替换成spring提供的 @Runwith</t>
+  </si>
+  <si>
+    <t>3、告知spring的运行器，spring和ioc创建是基于xml还是注解的，并且说明位置 @ContextConfiguration</t>
+  </si>
+  <si>
+    <t>a) locations：指定xml文件的位置，加上classpath关键字，表示在类路径下</t>
+  </si>
+  <si>
+    <t>b) classes：指定注解类所在地位置</t>
   </si>
 </sst>
 </file>
@@ -3158,10 +3179,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3957,6 +3978,41 @@
         <v>181</v>
       </c>
     </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
